--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -473,6 +473,9 @@
     <t>PRECIO</t>
   </si>
   <si>
+    <t>Cesitar</t>
+  </si>
+  <si>
     <t>TELEFONO RESP</t>
   </si>
   <si>
@@ -659,6 +662,9 @@
     <t>=</t>
   </si>
   <si>
+    <t>wx.TextCtrl(self.panel,style=wx.TE_READONLY)</t>
+  </si>
+  <si>
     <t>wx.TextCtrl(self.panel)</t>
   </si>
   <si>
@@ -666,12 +672,6 @@
   </si>
   <si>
     <t>wx.CheckBox(self.panel, label= "No")</t>
-  </si>
-  <si>
-    <t>wx.TextCtrl(self.panel,style=wx.TE_READONLY)</t>
-  </si>
-  <si>
-    <t>Cesitar</t>
   </si>
 </sst>
 </file>
@@ -999,30 +999,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,49 +1664,49 @@
         <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S10" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" t="s">
         <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD10" t="s">
         <v>37</v>
@@ -1730,48 +1728,48 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D32" si="0">+CONCATENATE(A1,B1,C1)</f>
         <v>self.fgs.Add(self.lblrequerimiento</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J1" t="str">
         <f t="shared" ref="J1:J32" si="1">+CONCATENATE(D1,E1,F1,G1,H1,I1)</f>
@@ -1780,32 +1778,32 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" si="1"/>
@@ -1814,32 +1812,32 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblareaencargada</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
@@ -1848,32 +1846,32 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblcotizacion</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
@@ -1882,32 +1880,32 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbltipotransp</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
@@ -1916,32 +1914,32 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbltipocont</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
@@ -1950,32 +1948,32 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldescargue</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
@@ -1984,32 +1982,32 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblorigen</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
@@ -2018,32 +2016,32 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldestino</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
@@ -2052,32 +2050,32 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblkm</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
@@ -2086,32 +2084,32 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblprecio</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
@@ -2120,32 +2118,32 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblrecargopeaje</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
@@ -2154,32 +2152,32 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblnombreresp</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
@@ -2188,32 +2186,32 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbltelresp</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
@@ -2222,32 +2220,32 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblcargoresp</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
@@ -2256,32 +2254,32 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblnombresiso</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
@@ -2290,32 +2288,32 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbltelesiso</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
@@ -2324,32 +2322,32 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldebeinfo</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H18">
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
@@ -2358,32 +2356,32 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblhorasantes</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H19">
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
@@ -2392,32 +2390,32 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblinfologistica</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
@@ -2426,32 +2424,32 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblinfocliente</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
@@ -2460,32 +2458,32 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfechaentrega</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
@@ -2494,32 +2492,32 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldireccion</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
@@ -2528,32 +2526,32 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblreferenciacont</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24">
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
@@ -2562,32 +2560,32 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblnombreconduc</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
@@ -2596,32 +2594,32 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblcedula</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
@@ -2630,32 +2628,32 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbltelefonoconduc</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
@@ -2664,32 +2662,32 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblplaca</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
@@ -2698,32 +2696,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbladiciones</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
@@ -2732,32 +2730,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblpreguntahoras</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
@@ -2766,32 +2764,32 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblpreguntadoc</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F31">
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
@@ -2800,32 +2798,32 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblrptarequerimiento</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
@@ -2834,66 +2832,66 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33:D65" si="2">+CONCATENATE(A33,B33,C33)</f>
+        <f t="shared" ref="D33:D64" si="2">+CONCATENATE(A33,B33,C33)</f>
         <v>self.fgs.Add(self.lblrptafecha</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33:J65" si="3">+CONCATENATE(D33,E33,F33,G33,H33,I33)</f>
+        <f t="shared" ref="J33:J64" si="3">+CONCATENATE(D33,E33,F33,G33,H33,I33)</f>
         <v>self.fgs.Add(self.lblrptafecha, pos=(2,2),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptaareaencargada</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34">
         <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
@@ -2902,32 +2900,32 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptacotizacion</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
@@ -2936,32 +2934,32 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptatipotransp</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
@@ -2970,32 +2968,32 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptatipocont</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37">
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
@@ -3004,32 +3002,32 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptadescargue</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -3038,32 +3036,32 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptaorigen</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
@@ -3072,32 +3070,32 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptadestino</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
@@ -3106,32 +3104,32 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptakm</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F41">
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
@@ -3140,32 +3138,32 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptaprecio</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F42">
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H42">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
@@ -3174,32 +3172,32 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptarecargopeaje</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
@@ -3208,32 +3206,32 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptanombreresp</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
@@ -3242,32 +3240,32 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptatelresp</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H45">
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
@@ -3276,32 +3274,32 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptacargoresp</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F46">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
@@ -3310,32 +3308,32 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptanombresiso</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H47">
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
@@ -3344,32 +3342,32 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptatelesiso</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48">
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H48">
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
@@ -3378,32 +3376,32 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptadebeinfo</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H49">
         <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
@@ -3412,444 +3410,443 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
         <v>self.fgs.Add(self.lblrptahorasantes</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H50">
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
         <v>self.fgs.Add(self.lblrptahorasantes, pos=(6,8),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D52:D63" si="4">+CONCATENATE(A52,B52,C52)</f>
         <v>self.fgs.Add(self.txtfechaentrega</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F52">
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J52:J63" si="5">+CONCATENATE(D52,E52,F52,G52,H52,I52)</f>
         <v>self.fgs.Add(self.txtfechaentrega, pos=(11,2),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtdireccion</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F53">
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtdireccion, pos=(11,4),span=(1,3), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtreferenciacont</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F54">
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H54">
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtreferenciacont, pos=(11,8),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtnombreconduc</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F55">
         <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtnombreconduc, pos=(13,1),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtcedula</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F56">
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtcedula, pos=(13,2),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txttelefonoconduc</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F57">
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txttelefonoconduc, pos=(13,3),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtplaca</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58">
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtplaca, pos=(13,4),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.txtadiciones</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F59">
         <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H59">
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.txtadiciones, pos=(13,6),span=(4,3), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.checkpreguntahoras_si</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F60">
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.checkpreguntahoras_si, pos=(15,4),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.checkpreguntahoras_no</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F61">
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H61">
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.checkpreguntahoras_no, pos=(16,4),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.checkpreguntadoc_si</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62">
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.checkpreguntadoc_si, pos=(18,4),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>self.fgs.Add(self.checkpreguntadoc_no</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F63">
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H63">
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>self.fgs.Add(self.checkpreguntadoc_no, pos=(19,4),span=(1,1), flag= wx.ALL, border=5)</v>
       </c>
     </row>
@@ -3866,39 +3863,39 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="56" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.75" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H32" si="0">+CONCATENATE(C1,A1,B1,G1)</f>
@@ -3919,25 +3916,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" si="0"/>
@@ -3958,25 +3955,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -3997,25 +3994,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -4036,25 +4033,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -4075,25 +4072,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -4114,25 +4111,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -4153,25 +4150,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -4192,25 +4189,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -4231,25 +4228,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -4270,25 +4267,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -4309,25 +4306,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -4348,25 +4345,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -4387,25 +4384,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -4426,25 +4423,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -4465,25 +4462,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -4504,25 +4501,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -4543,25 +4540,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -4582,25 +4579,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -4621,25 +4618,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -4660,25 +4657,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -4699,25 +4696,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -4738,25 +4735,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -4777,25 +4774,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -4816,25 +4813,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -4855,25 +4852,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -4894,25 +4891,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -4933,25 +4930,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -4972,25 +4969,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -5011,25 +5008,25 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -5050,25 +5047,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -5089,25 +5086,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -5127,33 +5124,33 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>199</v>
+      <c r="A33" t="s">
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:H65" si="4">+CONCATENATE(C33,A33,B33,G33)</f>
+        <f t="shared" ref="H33:H64" si="4">+CONCATENATE(C33,A33,B33,G33)</f>
         <v>self.txtfecha=</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33:I65" si="5">+CONCATENATE(H33,D33)</f>
+        <f t="shared" ref="I33:I64" si="5">+CONCATENATE(H33,D33)</f>
         <v>self.txtfecha=wx.TextCtrl(self.panel,style=wx.TE_READONLY)</v>
       </c>
       <c r="J33" t="str">
@@ -5166,26 +5163,26 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>199</v>
+      <c r="A34" t="s">
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="4"/>
@@ -5205,26 +5202,26 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>199</v>
+      <c r="A35" t="s">
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D35" t="s">
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="4"/>
@@ -5244,26 +5241,26 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>199</v>
+      <c r="A36" t="s">
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="4"/>
@@ -5283,26 +5280,26 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>199</v>
+      <c r="A37" t="s">
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="4"/>
@@ -5322,26 +5319,26 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>199</v>
+      <c r="A38" t="s">
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="4"/>
@@ -5361,26 +5358,26 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>199</v>
+      <c r="A39" t="s">
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="4"/>
@@ -5400,26 +5397,26 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>199</v>
+      <c r="A40" t="s">
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="4"/>
@@ -5439,26 +5436,26 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>199</v>
+      <c r="A41" t="s">
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="4"/>
@@ -5478,26 +5475,26 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>199</v>
+      <c r="A42" t="s">
+        <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="4"/>
@@ -5517,26 +5514,26 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>199</v>
+      <c r="A43" t="s">
+        <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="4"/>
@@ -5556,26 +5553,26 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>199</v>
+      <c r="A44" t="s">
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="4"/>
@@ -5595,26 +5592,26 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>199</v>
+      <c r="A45" t="s">
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="4"/>
@@ -5634,26 +5631,26 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>199</v>
+      <c r="A46" t="s">
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="4"/>
@@ -5673,26 +5670,26 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>199</v>
+      <c r="A47" t="s">
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="4"/>
@@ -5712,26 +5709,26 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>199</v>
+      <c r="A48" t="s">
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="4"/>
@@ -5751,26 +5748,26 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>199</v>
+      <c r="A49" t="s">
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D49" t="s">
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="4"/>
@@ -5790,26 +5787,26 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>199</v>
+      <c r="A50" t="s">
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="4"/>
@@ -5828,235 +5825,234 @@
         <v>self.txthorasantes.SetForegroundColour('white')</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" t="s">
         <v>212</v>
       </c>
-      <c r="G52" t="s">
-        <v>211</v>
-      </c>
       <c r="H52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H52:H63" si="8">+CONCATENATE(C52,A52,B52,G52)</f>
         <v>self.txtfechaentrega=</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I52:I63" si="9">+CONCATENATE(H52,D52)</f>
         <v>self.txtfechaentrega=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" t="s">
         <v>212</v>
       </c>
-      <c r="G53" t="s">
-        <v>211</v>
-      </c>
       <c r="H53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtdireccion=</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtdireccion=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" t="s">
         <v>212</v>
       </c>
-      <c r="G54" t="s">
-        <v>211</v>
-      </c>
       <c r="H54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtreferenciacont=</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtreferenciacont=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" t="s">
         <v>212</v>
       </c>
-      <c r="G55" t="s">
-        <v>211</v>
-      </c>
       <c r="H55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtnombreconduc=</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtnombreconduc=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" t="s">
         <v>212</v>
       </c>
-      <c r="G56" t="s">
-        <v>211</v>
-      </c>
       <c r="H56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtcedula=</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtcedula=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" t="s">
         <v>212</v>
       </c>
-      <c r="G57" t="s">
-        <v>211</v>
-      </c>
       <c r="H57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txttelefonoconduc=</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txttelefonoconduc=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" t="s">
         <v>212</v>
       </c>
-      <c r="G58" t="s">
-        <v>211</v>
-      </c>
       <c r="H58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtplaca=</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtplaca=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s">
         <v>212</v>
       </c>
-      <c r="G59" t="s">
-        <v>211</v>
-      </c>
       <c r="H59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.txtadiciones=</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.txtadiciones=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.checkpreguntahoras_si=</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.checkpreguntahoras_si=wx.CheckBox(self.panel, label= "Si")</v>
       </c>
       <c r="J60" t="str">
@@ -6070,32 +6066,32 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.checkpreguntahoras_no=</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.checkpreguntahoras_no=wx.CheckBox(self.panel, label= "No")</v>
       </c>
       <c r="J61" t="str">
@@ -6109,32 +6105,32 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.checkpreguntadoc_si=</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.checkpreguntadoc_si=wx.CheckBox(self.panel, label= "Si")</v>
       </c>
       <c r="J62" t="str">
@@ -6148,32 +6144,32 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>self.checkpreguntadoc_no=</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>self.checkpreguntadoc_no=wx.CheckBox(self.panel, label= "No")</v>
       </c>
       <c r="J63" t="str">

--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -333,10 +333,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -1751,7 +1751,6 @@
           <t>n/A</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
           <t>Si</t>
@@ -1760,6 +1759,1111 @@
       <c r="AG11" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>710</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Movimiento</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1778,7 +2882,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>

--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="15360" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7788" windowWidth="15360" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Arial"/>
@@ -54,10 +57,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -333,31 +340,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
+      <selection activeCell="Y55" sqref="Y55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="15.28515625"/>
-    <col customWidth="1" max="2" min="2" style="2" width="15.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="15.25"/>
+    <col customWidth="1" max="2" min="2" style="2" width="15.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="17.25"/>
     <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="12"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="13.375"/>
     <col customWidth="1" max="6" min="6" style="2" width="12"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="16.42578125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="16.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="16.375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="16.375"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="17"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="17.85546875"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="6.42578125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="7.140625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="3.7109375"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="6.140625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="13"/>
-    <col customWidth="1" max="16" min="16" style="2" width="13"/>
-    <col bestFit="1" customWidth="1" max="24" min="24" style="2" width="13.7109375"/>
+    <col customWidth="1" max="10" min="10" style="2" width="17"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="17.875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="6.375"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="7.125"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="3.75"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="6.125"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="2" width="13"/>
+    <col customWidth="1" max="17" min="17" style="2" width="13"/>
+    <col bestFit="1" customWidth="1" max="25" min="25" style="2" width="13.75"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12" r="1" s="2">
@@ -403,127 +411,137 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de Contenedor</t>
+          <t>Contenedor</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Requiere Descargue</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Origen</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Destino</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Km</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Recargo Peaje</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Precio+Recargo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Nombre Responsable</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Telefono Responsable</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Cargo</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Correo</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>NombreSISO</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Telefono SISO</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Debe enviar Info</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Horas Antes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Fecha Entrega</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Direccion</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Ref Contenedor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Nombre Conductor</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Cedula</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Telefono</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Placa</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Adiciones Entrega</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Documentacion Enviada Antes</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Documentacion Completa</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Consecutivo Remision</t>
         </is>
       </c>
     </row>
@@ -571,70 +589,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>10</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -684,70 +702,70 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>5000</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -797,70 +815,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>1000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -910,120 +928,120 @@
           <t>40 Pies HC</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>origen 4</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>destino 4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>km 4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>10700</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>responsable 4</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>tel respo 4</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>cargo 4</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>siso 4</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>telefono siso 4</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>AAAAA</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>direccion exacta</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>ref contenedor</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>nombre condu</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>cedula</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>tel</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>placa</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>adiciones</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -1073,70 +1091,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>550</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>550</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1186,45 +1204,45 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>sadf</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>asf</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>asd</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1274,65 +1292,65 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>9880</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1382,65 +1400,65 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>9880</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1490,115 +1508,115 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>9880</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>lkm</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>dxrtdcrftcvftrdetdrtdrtdrtftrcftrdcft</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>xccvhb</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>sadf</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>sdf</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>sdf</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>sdf</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>sdf</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>na</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1648,115 +1666,115 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>710</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>fecha hoy</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>n/A</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>n/A</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>n/A</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>n/A</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>TELEFONO</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>n/A</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -1806,70 +1824,70 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>10000</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>sd</t>
         </is>
@@ -1919,70 +1937,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>710</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2032,70 +2050,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>10</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2145,65 +2163,65 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>10</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2253,65 +2271,65 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>10</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2361,65 +2379,65 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2469,65 +2487,65 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2577,70 +2595,70 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>10</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2690,65 +2708,65 @@
           <t>20 Pies</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>210</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2798,73 +2816,4684 @@
           <t>10 Pies</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18-02-2020</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Brazo Grua</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>21</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NOMBRE 22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>MEDELLIN</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CARTAGENA</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>40000</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>CESAR</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>33822</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>COORDINADOR</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>SISO NAME</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>SISO TEL</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>FECHA ENTREDA</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>REF</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>NOMBRE CONDUC</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>CEDULA</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>PLACA</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>710</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Coti21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Nombre Cliente 26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>origen</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>destino</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>10700</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>nobmre resp</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>tel resp</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>correo@responsable.com</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>siso nombre</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>siso tel</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>12</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Movimiento</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>50</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Grua Basculante</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>8</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>9</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>36</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>37</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>38</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>39</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>456</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>41</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>42</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Movimiento</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>43</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AI44" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>43</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AI45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>44</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AI46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>50</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>97</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="Y48" s="3" t="n">
+        <v>43919</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>50</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Grua Basculante</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Bodega</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>50</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y50" s="3" t="n">
+        <v>43952</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Bodega</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>10</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y51" s="4" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Grua Basculante</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>20</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>nombre resp</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>tel resp</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>correo_res@htm.com</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>nobmre sis</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>tel siso</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>10</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>20</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="Y55" s="6" t="n">
+        <v>43929</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>310250</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AI55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>50</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y56" s="5" t="n">
+        <v>43997</v>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>sadsa</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>sdasd</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>310250</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AI56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>30-03-2020</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>56</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y57" s="6" t="n">
+        <v>43900</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI57" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2885,18 +7514,18 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="14.42578125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="5.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="15.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.5703125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="6.5703125"/>
-    <col customWidth="1" max="6" min="6" style="2" width="3.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="1.42578125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="3.85546875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="31.7109375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="40.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="14.375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="5.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="15.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="6.625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="3.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="1.375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="3.875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="31.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="40.375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5768,16 +10397,16 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="42.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="15.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.7109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="32.7109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="25.42578125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="25.28515625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="42.625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="15.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.75"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="32.75"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="25.375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="25.25"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="56"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="53.7109375"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="53.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8940,7 +13569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7788" windowWidth="15360" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Requerimientos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sizer add" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requerimientos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sizer add" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,21 +55,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -340,7 +340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
       <selection activeCell="Y55" sqref="Y55"/>
@@ -348,27 +348,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="15.25"/>
-    <col customWidth="1" max="2" min="2" style="2" width="15.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="17.25"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="12"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="13.375"/>
-    <col customWidth="1" max="6" min="6" style="2" width="12"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="16.375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="16.375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="17"/>
-    <col customWidth="1" max="10" min="10" style="2" width="17"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="17.875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="6.375"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="7.125"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="3.75"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="6.125"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="2" width="13"/>
-    <col customWidth="1" max="17" min="17" style="2" width="13"/>
-    <col bestFit="1" customWidth="1" max="25" min="25" style="2" width="13.75"/>
+    <col width="15.25" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="15.25" customWidth="1" style="2" min="2" max="2"/>
+    <col width="17.25" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13.375" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="12" customWidth="1" style="2" min="6" max="6"/>
+    <col width="16.375" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="16.375" customWidth="1" style="2" min="8" max="8"/>
+    <col width="17" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="17" customWidth="1" style="2" min="10" max="10"/>
+    <col width="17.875" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="6.375" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
+    <col width="7.125" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
+    <col width="3.75" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
+    <col width="6.125" bestFit="1" customWidth="1" style="2" min="15" max="15"/>
+    <col width="13" bestFit="1" customWidth="1" style="2" min="16" max="16"/>
+    <col width="13" customWidth="1" style="2" min="17" max="17"/>
+    <col width="13.75" bestFit="1" customWidth="1" style="2" min="25" max="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12" r="1" s="2">
+    <row r="1" ht="12" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Requerimiento N°</t>
@@ -7496,9 +7496,622 @@
         <v>9</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>La Estrella Main Park, La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>500</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>50</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI59" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Modificacion</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>sdfopo</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ssdfsd</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>szdf</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>adsf</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>|sdfg</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>sasac</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>20</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AI61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>04-04-2020</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Caldas, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>10</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASDF</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASDF</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>ADZF</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>SDF</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="AI62" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -7516,16 +8129,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="14.375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="5.75"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="15.625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="6.625"/>
-    <col customWidth="1" max="6" min="6" style="2" width="3.25"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="1.375"/>
-    <col customWidth="1" max="8" min="8" style="2" width="3.875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="31.75"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="40.375"/>
+    <col width="14.375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="5.75" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.625" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="27.625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="6.625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="3.25" customWidth="1" style="2" min="6" max="6"/>
+    <col width="1.375" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="3.875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="31.75" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="40.375" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10381,7 +10994,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10399,14 +11012,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="42.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="15.625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.75"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="32.75"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="25.375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="25.25"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="56"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="53.75"/>
+    <col width="42.625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="15.625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="27.75" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="32.75" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="25.375" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="25.25" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="53.75" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13552,8 +14165,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -13571,6 +14184,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7788" windowWidth="15360" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requerimientos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sizer add" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Requerimientos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sizer add" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -18,9 +18,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,21 +54,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -340,35 +339,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
-      <selection activeCell="Y55" sqref="Y55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col width="15.25" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="15.25" customWidth="1" style="2" min="2" max="2"/>
-    <col width="17.25" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="13.375" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="12" customWidth="1" style="2" min="6" max="6"/>
-    <col width="16.375" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="16.375" customWidth="1" style="2" min="8" max="8"/>
-    <col width="17" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="17" customWidth="1" style="2" min="10" max="10"/>
-    <col width="17.875" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
-    <col width="6.375" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
-    <col width="7.125" bestFit="1" customWidth="1" style="2" min="13" max="13"/>
-    <col width="3.75" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
-    <col width="6.125" bestFit="1" customWidth="1" style="2" min="15" max="15"/>
-    <col width="13" bestFit="1" customWidth="1" style="2" min="16" max="16"/>
-    <col width="13" customWidth="1" style="2" min="17" max="17"/>
-    <col width="13.75" bestFit="1" customWidth="1" style="2" min="25" max="25"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="15.25"/>
+    <col customWidth="1" max="2" min="2" style="2" width="15.25"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="17.25"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="12"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="13.375"/>
+    <col customWidth="1" max="6" min="6" style="2" width="12"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="16.375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="16.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="17"/>
+    <col customWidth="1" max="10" min="10" style="2" width="17"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="17.875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="6.375"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="7.125"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="3.75"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="13"/>
+    <col customWidth="1" max="16" min="16" style="2" width="13"/>
+    <col bestFit="1" customWidth="1" max="24" min="24" style="2" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" s="2">
+    <row customHeight="1" ht="12" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Requerimiento N°</t>
@@ -441,105 +439,100 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>Recargo Peaje</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Recargo Peaje</t>
+          <t>Precio+Recargo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Precio+Recargo</t>
+          <t>Nombre Responsable</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Nombre Responsable</t>
+          <t>Telefono Responsable</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Telefono Responsable</t>
+          <t>Correo</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Correo</t>
+          <t>NombreSISO</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NombreSISO</t>
+          <t>Telefono SISO</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Telefono SISO</t>
+          <t>Debe enviar Info</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Debe enviar Info</t>
+          <t>Horas Antes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Horas Antes</t>
+          <t>Fecha Entrega</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Fecha Entrega</t>
+          <t>Direccion</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Direccion</t>
+          <t>Ref Contenedor</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Ref Contenedor</t>
+          <t>Nombre Conductor</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Nombre Conductor</t>
+          <t>Cedula</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Cedula</t>
+          <t>Telefono</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Telefono</t>
+          <t>Placa</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Placa</t>
+          <t>Adiciones Entrega</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Adiciones Entrega</t>
+          <t>Documentacion Enviada Antes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Documentacion Enviada Antes</t>
+          <t>Documentacion Completa</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Documentacion Completa</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Consecutivo Remision</t>
         </is>
@@ -611,17 +604,17 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="P2" t="n">
         <v>10</v>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>1</t>
@@ -644,15 +637,10 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -724,17 +712,17 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="P3" t="n">
         <v>5000</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>1</t>
@@ -757,15 +745,10 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -837,17 +820,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="P4" t="n">
         <v>1000</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>3</t>
@@ -870,15 +853,10 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -950,98 +928,93 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="P5" t="n">
         <v>10700</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>responsable 4</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>responsable 4</t>
+          <t>tel respo 4</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>tel respo 4</t>
+          <t>cargo 4</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>cargo 4</t>
+          <t>siso 4</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>siso 4</t>
+          <t>telefono siso 4</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>telefono siso 4</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>direccion exacta</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ref contenedor</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>nombre condu</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>cedula</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>placa</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>adiciones</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>AAAAA</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>direccion exacta</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>ref contenedor</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>nombre condu</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>cedula</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>tel</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>placa</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>adiciones</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -1113,17 +1086,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="P6" t="n">
         <v>550</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
           <t>5</t>
@@ -1146,15 +1119,10 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1221,28 +1189,23 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="P7" t="n">
         <v>10</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
           <t>asd</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1309,17 +1272,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="P8" t="n">
         <v>10</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>a</t>
@@ -1342,15 +1305,10 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1417,17 +1375,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>a</t>
@@ -1450,15 +1408,10 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -1530,20 +1483,20 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="P10" t="n">
         <v>10</v>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>dxrtdcrftcvftrdetdrtdrtdrtftrcftrdcft</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>dxrtdcrftcvftrdetdrtdrtdrtftrcftrdcft</t>
+          <t>a</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1563,60 +1516,55 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>xccvhb</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>xccvhb</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>sadf</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1688,93 +1636,88 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>710</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>710</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>fecha hoy</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>n/A</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>n/A</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>n/A</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>n/A</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>n/A</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>fecha hoy</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>n/A</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>n/A</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>n/A</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>n/A</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>TELEFONO</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>n/A</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -1846,17 +1789,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="P12" t="n">
         <v>10000</v>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr">
         <is>
           <t>a</t>
@@ -1879,15 +1822,10 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
         <is>
           <t>sd</t>
         </is>
@@ -1959,17 +1897,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="P13" t="n">
         <v>710</v>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>a</t>
@@ -1992,15 +1930,10 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2072,17 +2005,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="P14" t="n">
         <v>10</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
           <t>a</t>
@@ -2105,15 +2038,10 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2185,17 +2113,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>10</v>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
           <t>10</t>
@@ -2217,11 +2145,6 @@
         </is>
       </c>
       <c r="V15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2293,17 +2216,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q16" t="n">
+      <c r="P16" t="n">
         <v>10</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2325,11 +2248,6 @@
         </is>
       </c>
       <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2401,17 +2319,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q17" t="n">
+      <c r="P17" t="n">
         <v>10</v>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>1</t>
@@ -2433,11 +2351,6 @@
         </is>
       </c>
       <c r="V17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2509,17 +2422,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>1</t>
@@ -2541,11 +2454,6 @@
         </is>
       </c>
       <c r="V18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2617,17 +2525,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q19" t="n">
+      <c r="P19" t="n">
         <v>10</v>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
           <t>a</t>
@@ -2650,15 +2558,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
         <is>
           <t>a</t>
         </is>
@@ -2730,17 +2633,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q20" t="n">
+      <c r="P20" t="n">
         <v>210</v>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
           <t>a</t>
@@ -2762,11 +2665,6 @@
         </is>
       </c>
       <c r="V20" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2838,17 +2736,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
       <c r="R21" t="inlineStr">
         <is>
           <t>4</t>
@@ -2871,15 +2769,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2951,17 +2844,17 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>21</v>
-      </c>
       <c r="R22" t="inlineStr">
         <is>
           <t>21</t>
@@ -2983,11 +2876,6 @@
         </is>
       </c>
       <c r="V22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3059,93 +2947,88 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q23" t="n">
+      <c r="P23" t="n">
         <v>40000</v>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>CESAR</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>CESAR</t>
+          <t>33822</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>33822</t>
+          <t>COORDINADOR</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>COORDINADOR</t>
+          <t>SISO NAME</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>SISO NAME</t>
+          <t>SISO TEL</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>SISO TEL</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>FECHA ENTREDA</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>FECHA ENTREDA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>REF</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>REF</t>
+          <t>NOMBRE CONDUC</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>NOMBRE CONDUC</t>
+          <t>CEDULA</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>CEDULA</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>TEL</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
           <t>PLACA</t>
         </is>
       </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AG23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -3217,17 +3100,17 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q24" t="n">
+      <c r="P24" t="n">
         <v>710</v>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
           <t>a</t>
@@ -3235,14 +3118,14 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>CORREO</t>
-        </is>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>a</t>
@@ -3250,14 +3133,14 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr">
         <is>
           <t>b</t>
@@ -3295,15 +3178,10 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
@@ -3380,17 +3258,17 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q25" t="n">
+      <c r="P25" t="n">
         <v>10</v>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
           <t>a</t>
@@ -3413,15 +3291,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3498,17 +3371,17 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q26" t="n">
+      <c r="P26" t="n">
         <v>10</v>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
           <t>c</t>
@@ -3530,11 +3403,6 @@
         </is>
       </c>
       <c r="V26" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3611,48 +3479,43 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q27" t="n">
+      <c r="P27" t="n">
         <v>10700</v>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>nobmre resp</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>nobmre resp</t>
+          <t>tel resp</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>tel resp</t>
+          <t>correo@responsable.com</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>correo@responsable.com</t>
+          <t>siso nombre</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>siso nombre</t>
+          <t>siso tel</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>siso tel</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3729,17 +3592,17 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q28" t="n">
+      <c r="P28" t="n">
         <v>12</v>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
           <t>a</t>
@@ -3761,11 +3624,6 @@
         </is>
       </c>
       <c r="V28" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3842,48 +3700,43 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>10</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="W29" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -3960,17 +3813,17 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="P30" t="n">
         <v>6000</v>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
           <t>10</t>
@@ -3993,15 +3846,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -4078,17 +3926,17 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>50</v>
-      </c>
       <c r="R31" t="inlineStr">
         <is>
           <t>50</t>
@@ -4111,15 +3959,10 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -4196,17 +4039,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q32" t="n">
+      <c r="P32" t="n">
         <v>10</v>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
           <t>50</t>
@@ -4229,15 +4072,10 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
         <is>
           <t>50</t>
         </is>
@@ -4314,17 +4152,17 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>10</v>
-      </c>
       <c r="R33" t="inlineStr">
         <is>
           <t>10</t>
@@ -4346,11 +4184,6 @@
         </is>
       </c>
       <c r="V33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4427,17 +4260,17 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>8</v>
-      </c>
       <c r="R34" t="inlineStr">
         <is>
           <t>8</t>
@@ -4459,11 +4292,6 @@
         </is>
       </c>
       <c r="V34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4540,17 +4368,17 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>9</v>
-      </c>
       <c r="R35" t="inlineStr">
         <is>
           <t>9</t>
@@ -4572,11 +4400,6 @@
         </is>
       </c>
       <c r="V35" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4653,17 +4476,17 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>6</v>
-      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>6</t>
@@ -4685,11 +4508,6 @@
         </is>
       </c>
       <c r="V36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4766,17 +4584,17 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>36</v>
-      </c>
       <c r="R37" t="inlineStr">
         <is>
           <t>36</t>
@@ -4798,11 +4616,6 @@
         </is>
       </c>
       <c r="V37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4879,17 +4692,17 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>37</v>
-      </c>
       <c r="R38" t="inlineStr">
         <is>
           <t>37</t>
@@ -4912,15 +4725,10 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
         <is>
           <t>37</t>
         </is>
@@ -4997,17 +4805,17 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>38</v>
-      </c>
       <c r="R39" t="inlineStr">
         <is>
           <t>38</t>
@@ -5029,11 +4837,6 @@
         </is>
       </c>
       <c r="V39" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5110,17 +4913,17 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>39</v>
-      </c>
       <c r="R40" t="inlineStr">
         <is>
           <t>39</t>
@@ -5142,11 +4945,6 @@
         </is>
       </c>
       <c r="V40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5223,59 +5021,54 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>10</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB41" t="n">
+        <v>1234</v>
+      </c>
       <c r="AC41" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AD41" t="n">
         <v>456</v>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
@@ -5352,17 +5145,17 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>41</v>
-      </c>
       <c r="R42" t="inlineStr">
         <is>
           <t>41</t>
@@ -5385,31 +5178,26 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB42" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC42" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD42" t="n">
         <v>310250</v>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
@@ -5486,64 +5274,59 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q43" t="n">
-        <v>42</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB43" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC43" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD43" t="n">
         <v>310250</v>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AD43" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI43" t="n">
+      <c r="AH43" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5618,17 +5401,17 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>43</v>
-      </c>
       <c r="R44" t="inlineStr">
         <is>
           <t>43</t>
@@ -5651,20 +5434,15 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AI44" t="n">
+      <c r="AH44" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5739,17 +5517,17 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>43</v>
-      </c>
       <c r="R45" t="inlineStr">
         <is>
           <t>43</t>
@@ -5772,20 +5550,15 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AI45" t="n">
+      <c r="AH45" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5860,17 +5633,17 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q46" t="n">
+      <c r="P46" t="n">
         <v>44</v>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
           <t>43</t>
@@ -5893,20 +5666,15 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AI46" t="n">
+      <c r="AH46" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5981,17 +5749,17 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>50</v>
-      </c>
       <c r="R47" t="inlineStr">
         <is>
           <t>50</t>
@@ -6013,11 +5781,6 @@
         </is>
       </c>
       <c r="V47" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6094,17 +5857,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>97</v>
-      </c>
       <c r="R48" t="inlineStr">
         <is>
           <t>97</t>
@@ -6127,23 +5890,18 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="Y48" s="3" t="n">
+      <c r="X48" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AH48" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6218,64 +5976,59 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>50</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB49" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC49" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD49" t="n">
         <v>310250</v>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI49" t="n">
+      <c r="AH49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6350,96 +6103,91 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>50</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
+      <c r="X50" s="3" t="n">
+        <v>43952</v>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Bodega</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y50" s="3" t="n">
-        <v>43952</v>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>CONTENEDOR: 10 Pies - TIPO: Bodega</t>
-        </is>
-      </c>
       <c r="AG50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI50" t="n">
+      <c r="AH50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6514,98 +6262,93 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>10</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
+      <c r="X51" s="4" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y51" s="4" t="inlineStr">
-        <is>
-          <t>30/03/2020</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
-        </is>
-      </c>
       <c r="AG51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI51" t="n">
+      <c r="AH51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6680,17 +6423,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q52" t="n">
+      <c r="P52" t="n">
         <v>20</v>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
           <t>10</t>
@@ -6713,15 +6456,10 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AI52" t="n">
+      <c r="AH52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6796,69 +6534,64 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q53" t="n">
+      <c r="P53" t="n">
         <v>10000</v>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>nombre resp</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>nombre resp</t>
+          <t>tel resp</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>tel resp</t>
+          <t>correo_res@htm.com</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>correo_res@htm.com</t>
+          <t>nobmre sis</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>nobmre sis</t>
+          <t>tel siso</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>tel siso</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB53" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC53" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD53" t="n">
         <v>310250</v>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI53" t="n">
+      <c r="AH53" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6933,17 +6666,17 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>10</v>
-      </c>
       <c r="R54" t="inlineStr">
         <is>
           <t>10</t>
@@ -6966,36 +6699,31 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB54" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC54" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD54" t="n">
         <v>310250</v>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AD54" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI54" t="n">
+      <c r="AH54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7070,17 +6798,17 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>20</v>
-      </c>
       <c r="R55" t="inlineStr">
         <is>
           <t>20</t>
@@ -7103,68 +6831,63 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="X55" s="6" t="n">
+        <v>43929</v>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>310250</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y55" s="6" t="n">
-        <v>43929</v>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>Juan D Jimenez</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>310250</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>MLP310</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
-        </is>
-      </c>
       <c r="AG55" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AI55" t="n">
+      <c r="AH55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7239,17 +6962,17 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q56" t="n">
+      <c r="P56" t="n">
         <v>50</v>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
           <t>sd</t>
@@ -7267,68 +6990,63 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>s</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y56" s="5" t="n">
+      <c r="X56" s="6" t="n">
         <v>43997</v>
       </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>sadsa</t>
+        </is>
+      </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>sadsa</t>
+          <t>sdasd</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>sdasd</t>
+          <t>Juan D Jimenez</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>Juan D Jimenez</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>310250</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>310250</t>
+          <t>MLP310</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>MLP310</t>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="AI56" t="n">
+      <c r="AH56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7403,96 +7121,91 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q57" t="n">
-        <v>56</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
+      <c r="X57" s="6" t="n">
+        <v>43900</v>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>ASD</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y57" s="6" t="n">
-        <v>43900</v>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>ASD</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>ASD</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>ASD</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>ASD</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
-        </is>
-      </c>
       <c r="AG57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI57" t="n">
+      <c r="AH57" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7567,48 +7280,43 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q58" t="n">
-        <v>500</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>5050</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>5050</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>5050</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AI58" t="n">
+      <c r="AH58" t="n">
         <v>10</v>
       </c>
     </row>
@@ -7683,64 +7391,59 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q59" t="n">
-        <v>50</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AA59" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB59" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC59" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD59" t="n">
         <v>310250</v>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI59" t="n">
+      <c r="AH59" t="n">
         <v>11</v>
       </c>
     </row>
@@ -7815,48 +7518,43 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q60" t="n">
+      <c r="P60" t="n">
         <v>4</v>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>szdf</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>szdf</t>
+          <t>adsf</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>adsf</t>
+          <t>sdf</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>sdf</t>
+          <t>sadf</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>sadf</t>
+          <t>|sdfg</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>|sdfg</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AI60" t="n">
+      <c r="AH60" t="n">
         <v>12</v>
       </c>
     </row>
@@ -7931,64 +7629,59 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q61" t="n">
-        <v>20</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
         </is>
       </c>
+      <c r="AB61" t="n">
+        <v>123456789</v>
+      </c>
       <c r="AC61" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="AD61" t="n">
         <v>310250</v>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AD61" t="inlineStr">
         <is>
           <t>MLP310</t>
         </is>
       </c>
-      <c r="AI61" t="n">
+      <c r="AH61" t="n">
         <v>13</v>
       </c>
     </row>
@@ -8063,55 +7756,1996 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>ASDF</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASDF</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASDF</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>ADZF</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>SDF</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>05-04-2020</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5650</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Envigado-El Escobero, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Barbosa, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="X63" s="6" t="n">
+        <v>43926</v>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>sef</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AH63" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>05-04-2020</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Envigado-El Escobero, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Envigado-El Escobero, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q62" t="n">
-        <v>10</v>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>ASDF</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ASDF</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ASDF</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>ADZF</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>SDF</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
+      <c r="P64" t="n">
+        <v>456</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>8990</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="AI62" t="n">
-        <v>14</v>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB64" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH64" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>05-04-2020</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Sancho Paisa Aeropuerto JMC, Glorieta aeropuerto JMC, Rionegro, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Juan Pablo II, Medellin, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH65" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>05-04-2020</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Sabaneta, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB66" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>lasdf</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Oriental Centro Comercial y de servicios, Carrera 46, Medellin, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>asdfd</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB67" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH67" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>lasdf</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Oriental Centro Comercial y de servicios, Carrera 46, Medellin, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>asdfd</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB68" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>lasdf</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Grua Basculante</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Bodega</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Oriental Centro Comercial y de servicios, Carrera 46, Medellin, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>asdfd</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH69" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>manizales, Caldas, Colombia</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>adsf</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>sdfs</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>szdf</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>asdfs</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB70" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH70" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>devolucion</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Devolucion</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Caldas, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>nombre resp</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>tel resp</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>correo resp</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>siso resp</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>rtel resp</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X71" s="6" t="n">
+        <v>43928</v>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>sdfsdd</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>310250</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AH71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>movimiento</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Movimiento</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Grua Basculante</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Caldas, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>nombre resp</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>tel resp</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>correo resp</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>siso resp</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>rtel resp</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X72" s="6" t="n">
+        <v>43928</v>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>CONTENEDOR: 10 Pies - TIPO: Adaptacion</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AH72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>nobm</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Manizales, Caldas, Colombia</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>1665300</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>nombre ree</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>cor</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>sis</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>trel</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB73" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH73" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>nobm</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>La Estrella, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Manizales, Caldas, Colombia</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>1189500</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>nombre ree</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>cor</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>sis</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>trel</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH74" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional José María Córdova, Rionegro, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Envigado-El Escobero, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>226200</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>aasd</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB75" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Camion-Planchon</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gerencia</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>20 Pies</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional José María Córdova, Rionegro, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Envigado-El Escobero, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>188500</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>aasd</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH76" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>07-04-2020</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Venta</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Medellin Antioquia, Carrera 52, Itagüí, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Acceso Mall Indiana, Envigado, Antioquia, Colombia</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>117000</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB77" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH77" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8129,16 +9763,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col width="14.375" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="5.75" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.625" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="27.625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="6.625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="3.25" customWidth="1" style="2" min="6" max="6"/>
-    <col width="1.375" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="3.875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="31.75" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="40.375" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="14.375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="5.75"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="15.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="6.625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="3.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="1.375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="3.875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="31.75"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="40.375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10994,7 +12628,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -11012,14 +12646,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
-    <col width="42.625" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="15.625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="27.75" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
-    <col width="32.75" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="25.375" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="25.25" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="53.75" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="42.625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="15.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="27.75"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="32.75"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="25.375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="25.25"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="56"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="53.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14165,8 +15799,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -14184,6 +15818,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/db_req.xlsx
+++ b/db_req.xlsx
@@ -339,7 +339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9722,7 +9722,6 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W77" t="inlineStr"/>
       <c r="AA77" t="inlineStr">
         <is>
           <t>Juan D Jimenez</t>
@@ -9741,6 +9740,261 @@
       </c>
       <c r="AH77" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>14-04-2020</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>dea</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Devolucion</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>casd</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>65000</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB78" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>14-04-2020</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Devolucion</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Propio</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Administracion</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10 Pies</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Adaptacion</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>65000</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>sdfgs</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>sdfs</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Juan D Jimenez</t>
+        </is>
+      </c>
+      <c r="AB79" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>310250</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>MLP310</t>
+        </is>
+      </c>
+      <c r="AH79" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
